--- a/data/BOC/FTD/FTDE/AGDSEXCSB_A_historical.xlsx
+++ b/data/BOC/FTD/FTDE/AGDSEXCSB_A_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AGDSEXCSB_A" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,839 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>AFFBEXCSB</t>
-  </si>
-  <si>
-    <t>Foods, Feeds and Beverages,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AACBEXCSB</t>
-  </si>
-  <si>
-    <t>Alcoholic beverages, excluding wine,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AANFEXCSB</t>
-  </si>
-  <si>
-    <t>Animal feeds, n.e.c.,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ABAKEXCSB</t>
-  </si>
-  <si>
-    <t>Bakery products,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ACOREXCSB</t>
-  </si>
-  <si>
-    <t>Corn,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ADPEEXCSB</t>
-  </si>
-  <si>
-    <t>Dairy products and eggs,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AFSFEXCSB</t>
-  </si>
-  <si>
-    <t>Fish and shellfish,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AFFJEXCSB</t>
-  </si>
-  <si>
-    <t>Fruits and frozen juices,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AMPOEXCSB</t>
-  </si>
-  <si>
-    <t>Meat, poultry, etc.,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ANAFEXCSB</t>
-  </si>
-  <si>
-    <t>Nonagricultural foods, etc.,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ANUTEXCSB</t>
-  </si>
-  <si>
-    <t>Nuts,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AOFOEXCSB</t>
-  </si>
-  <si>
-    <t>Food oils and oilseeds,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AOTFEXCSB</t>
-  </si>
-  <si>
-    <t>Other foods,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ARICEXCSB</t>
-  </si>
-  <si>
-    <t>Rice,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ASBOEXCSB</t>
-  </si>
-  <si>
-    <t>Sorghum, barley, oats,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ASOYEXCSB</t>
-  </si>
-  <si>
-    <t>Soybeans,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AVEGEXCSB</t>
-  </si>
-  <si>
-    <t>Vegetables,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AWHTEXCSB</t>
-  </si>
-  <si>
-    <t>Wheat,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AWBPEXCSB</t>
-  </si>
-  <si>
-    <t>Wine, beer, and related products,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AIDSEXCSB</t>
-  </si>
-  <si>
-    <t>Industrial Supplies and Materials,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AAFUEXCSB</t>
-  </si>
-  <si>
-    <t>Agricultural farming-unmanufactured,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AAIUEXCSB</t>
-  </si>
-  <si>
-    <t>Agricultural industry-unmanufactured,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AOAMEXCSB</t>
-  </si>
-  <si>
-    <t>Agriculture-manufactured, other,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AALUEXCSB</t>
-  </si>
-  <si>
-    <t>Aluminum and alumina,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ATAVEXCSB</t>
-  </si>
-  <si>
-    <t>Tapes, audio and visual,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ACMFEXCSB</t>
-  </si>
-  <si>
-    <t>Chemicals-fertilizers,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ACMIEXCSB</t>
-  </si>
-  <si>
-    <t>Chemicals-inorganic,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ACMOEXCSB</t>
-  </si>
-  <si>
-    <t>Chemicals-organic,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AOCMEXCSB</t>
-  </si>
-  <si>
-    <t>Chemicals-other,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AOCFEXCSB</t>
-  </si>
-  <si>
-    <t>Coal and related fuels,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ACOPEXCSB</t>
-  </si>
-  <si>
-    <t>Copper,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ACFCEXCSB</t>
-  </si>
-  <si>
-    <t>Cotton fiber cloth,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ACTREXCSB</t>
-  </si>
-  <si>
-    <t>Cotton, raw,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ACDOEXCSB</t>
-  </si>
-  <si>
-    <t>Crude oil,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AEENEXCSB</t>
-  </si>
-  <si>
-    <t>Electric energy,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AFMSEXCSB</t>
-  </si>
-  <si>
-    <t>Finished metal shapes,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AFTSEXCSB</t>
-  </si>
-  <si>
-    <t>Finished textile supplies,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AFULEXCSB</t>
-  </si>
-  <si>
-    <t>Fuel oil,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ANGSEXCSB</t>
-  </si>
-  <si>
-    <t>Gas-natural,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AGPSEXCSB</t>
-  </si>
-  <si>
-    <t>Glass-plate, sheet, etc.,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AHWMEXCSB</t>
-  </si>
-  <si>
-    <t>Hair and waste materials,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AHSKEXCSB</t>
-  </si>
-  <si>
-    <t>Hides and skins,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AIRPEXCSB</t>
-  </si>
-  <si>
-    <t>Industrial rubber products,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AOISEXCSB</t>
-  </si>
-  <si>
-    <t>Other industrial supplies,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AISMEXCSB</t>
-  </si>
-  <si>
-    <t>Iron and steel mill products,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AIRSEXCSB</t>
-  </si>
-  <si>
-    <t>Iron and steel products, n.e.c.,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ALTFEXCSB</t>
-  </si>
-  <si>
-    <t>Leather and furs,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ALLBEXCSB</t>
-  </si>
-  <si>
-    <t>Logs and lumber,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AMMCEXCSB</t>
-  </si>
-  <si>
-    <t>Manmade cloth,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AMGCEXCSB</t>
-  </si>
-  <si>
-    <t>Metallurgical grade coal,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AMSMEXCSB</t>
-  </si>
-  <si>
-    <t>Mineral supplies-manufactured,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ANGLEXCSB</t>
-  </si>
-  <si>
-    <t>Liquified petroleum gases,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ANWPEXCSB</t>
-  </si>
-  <si>
-    <t>Newsprint,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AONMEXCSB</t>
-  </si>
-  <si>
-    <t>Nonferrous metals, other,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ANMMEXCSB</t>
-  </si>
-  <si>
-    <t>Nonmetallic minerals,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ANMGEXCSB</t>
-  </si>
-  <si>
-    <t>Nonmonetary gold,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ANFTEXCSB</t>
-  </si>
-  <si>
-    <t>Nontextile floor tiles,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ANUFEXCSB</t>
-  </si>
-  <si>
-    <t>Nuclear fuel materials,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AOPPEXCSB</t>
-  </si>
-  <si>
-    <t>Petroleum products, other,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>APLAEXCSB</t>
-  </si>
-  <si>
-    <t>Plastic materials,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AOPMEXCSB</t>
-  </si>
-  <si>
-    <t>Other precious metals,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>APWPEXCSB</t>
-  </si>
-  <si>
-    <t>Pulpwood and woodpulp,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ASMWEXCSB</t>
-  </si>
-  <si>
-    <t>Shingles, molding and wallboard,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ASMMEXCSB</t>
-  </si>
-  <si>
-    <t>Steelmaking materials,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ASRPEXCSB</t>
-  </si>
-  <si>
-    <t>Synthetic rubber-primary,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ATBUEXCSB</t>
-  </si>
-  <si>
-    <t>Tobacco, waxes, etc.,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AWSMEXCSB</t>
-  </si>
-  <si>
-    <t>Wood supplies, manufactured,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ACPGEXCSB</t>
-  </si>
-  <si>
-    <t>Capital Goods,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AAMEEXCSB</t>
-  </si>
-  <si>
-    <t>Agricultural machinery and equipment,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ABMEEXCSB</t>
-  </si>
-  <si>
-    <t>Business machines and equipment,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ACVAEXCSB</t>
-  </si>
-  <si>
-    <t>Civilian aircraft,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AOCVEXCSB</t>
-  </si>
-  <si>
-    <t>Commercial vessels, other,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ACACEXCSB</t>
-  </si>
-  <si>
-    <t>Computer accessories,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ACPTEXCSB</t>
-  </si>
-  <si>
-    <t>Computers,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ADRLEXCSB</t>
-  </si>
-  <si>
-    <t>Drilling and oilfield equipment,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AEAPEXCSB</t>
-  </si>
-  <si>
-    <t>Electric apparatus,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AECAEXCSB</t>
-  </si>
-  <si>
-    <t>Engines-civilian aircraft,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AEXCEXCSB</t>
-  </si>
-  <si>
-    <t>Excavating machinery,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AFTMEXCSB</t>
-  </si>
-  <si>
-    <t>Food and tobacco machinery,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AGNAEXCSB</t>
-  </si>
-  <si>
-    <t>Generators and accessories,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AIDEEXCSB</t>
-  </si>
-  <si>
-    <t>Industrial engines,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AOIMEXCSB</t>
-  </si>
-  <si>
-    <t>Industrial machines, other,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ALABEXCSB</t>
-  </si>
-  <si>
-    <t>Laboratory testing instruments,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AMEPEXCSB</t>
-  </si>
-  <si>
-    <t>Marine engines and parts,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AMHEEXCSB</t>
-  </si>
-  <si>
-    <t>Materials handling equipment,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AMTCEXCSB</t>
-  </si>
-  <si>
-    <t>Measuring, testing and control instruments,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AMEDEXCSB</t>
-  </si>
-  <si>
-    <t>Medical equipment,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AMMTEXCSB</t>
-  </si>
-  <si>
-    <t>Metalworking machine tools,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ANFPEXCSB</t>
-  </si>
-  <si>
-    <t>Nonfarming tractors and parts,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>APCAEXCSB</t>
-  </si>
-  <si>
-    <t>Parts-civilian aircraft,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>APHSEXCSB</t>
-  </si>
-  <si>
-    <t>Photo and service industry machinery,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>APPMEXCSB</t>
-  </si>
-  <si>
-    <t>Pulp and paper machinery,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ARTEEXCSB</t>
-  </si>
-  <si>
-    <t>Railway transportation equipment,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ASCDEXCSB</t>
-  </si>
-  <si>
-    <t>Semiconductors,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ASPCEXCSB</t>
-  </si>
-  <si>
-    <t>Spacecraft, excluding military,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ASPMEXCSB</t>
-  </si>
-  <si>
-    <t>Specialized mining,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ATELEXCSB</t>
-  </si>
-  <si>
-    <t>Telecommunications equipment,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ATSMEXCSB</t>
-  </si>
-  <si>
-    <t>Textile, sewing machines,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AVESEXCSB</t>
-  </si>
-  <si>
-    <t>Vessels, excluding scrap,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AWGPEXCSB</t>
-  </si>
-  <si>
-    <t>Wood, glass and plastic,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AAMVEXCSB</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AATTEXCSB</t>
-  </si>
-  <si>
-    <t>Automotive tires and tubes,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ABCPEXCSB</t>
-  </si>
-  <si>
-    <t>Bodies and chassis for passenger cars,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AENPEXCSB</t>
-  </si>
-  <si>
-    <t>Engines and engine parts,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AOPAEXCSB</t>
-  </si>
-  <si>
-    <t>Other parts and accessories of vehicles,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>APSCEXCSB</t>
-  </si>
-  <si>
-    <t>Passenger cars, new and used,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ATBVEXCSB</t>
-  </si>
-  <si>
-    <t>Trucks, buses and special purpose vehicles,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ACGDEXCSB</t>
-  </si>
-  <si>
-    <t>Consumer Goods,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ATAHEXCSB</t>
-  </si>
-  <si>
-    <t>Apparel and household goods - textile,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ANTAEXCSB</t>
-  </si>
-  <si>
-    <t>Apparel and household goods-nontextile,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AARTEXCSB</t>
-  </si>
-  <si>
-    <t>Artwork, antiques, stamps, etc.,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AWASEXCSB</t>
-  </si>
-  <si>
-    <t>Writing and art supplies,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ABPMEXCSB</t>
-  </si>
-  <si>
-    <t>Books and printed matter,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ACELEXCSB</t>
-  </si>
-  <si>
-    <t>Cell phones and other household goods, n.e.c.,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ACCTEXCSB</t>
-  </si>
-  <si>
-    <t>Cookware, cutlery and tools,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AFHGEXCSB</t>
-  </si>
-  <si>
-    <t>Furniture, household goods, etc.,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AOHGEXCSB</t>
-  </si>
-  <si>
-    <t>Other household goods,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AGEMEXCSB</t>
-  </si>
-  <si>
-    <t>Gem diamonds,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AGCWEXCSB</t>
-  </si>
-  <si>
-    <t>Glassware and chinaware,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AAPPEXCSB</t>
-  </si>
-  <si>
-    <t>Household appliances,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AJLREXCSB</t>
-  </si>
-  <si>
-    <t>Jewelry, etc.,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AMUSEXCSB</t>
-  </si>
-  <si>
-    <t>Musical instruments,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ANMCEXCSB</t>
-  </si>
-  <si>
-    <t>Numismatic coins,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ANUREXCSB</t>
-  </si>
-  <si>
-    <t>Nursery stock, etc.,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AOCNEXCSB</t>
-  </si>
-  <si>
-    <t>Other consumer nondurables,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>APHAEXCSB</t>
-  </si>
-  <si>
-    <t>Pharmaceutical preparations,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>APBMEXCSB</t>
-  </si>
-  <si>
-    <t>Pleasure boats and motors,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ARCMEXCSB</t>
-  </si>
-  <si>
-    <t>Recorded media,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ARUGEXCSB</t>
-  </si>
-  <si>
-    <t>Rugs,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ASAGEXCSB</t>
-  </si>
-  <si>
-    <t>Sports apparel and gear,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ASTEEXCSB</t>
-  </si>
-  <si>
-    <t>Stereo equipment, etc.,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ATVEEXCSB</t>
-  </si>
-  <si>
-    <t>Televisions and video equipment,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ATBMEXCSB</t>
-  </si>
-  <si>
-    <t>Tobacco, manufactured,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ATCMEXCSB</t>
-  </si>
-  <si>
-    <t>Toiletries and cosmetics,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>ATOYEXCSB</t>
-  </si>
-  <si>
-    <t>Toys, games and sporting goods,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AOTGEXCSB</t>
-  </si>
-  <si>
-    <t>Other Goods,  Exports,  Census Basis</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1199,9 +366,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
       </c>
       <c r="B1" s="1" t="n">
         <v>2000</v>
@@ -1266,19 +435,27 @@
       <c r="V1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AFFBEXCSB</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>47871</v>
@@ -1343,19 +520,25 @@
       <c r="V2" t="n">
         <v>139335</v>
       </c>
-      <c r="W2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" t="s">
-        <v>5</v>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>AFFBEXCSB</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Foods, Feeds and Beverages,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y2" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>AACBEXCSB</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>554</v>
@@ -1420,19 +603,25 @@
       <c r="V3" t="n">
         <v>1996</v>
       </c>
-      <c r="W3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X3" t="s">
-        <v>7</v>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>AACBEXCSB</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Alcoholic beverages, excluding wine,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y3" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>AANFEXCSB</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>3230</v>
@@ -1497,19 +686,25 @@
       <c r="V4" t="n">
         <v>9322</v>
       </c>
-      <c r="W4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X4" t="s">
-        <v>9</v>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>AANFEXCSB</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Animal feeds, n.e.c.,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y4" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>ABAKEXCSB</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>1958</v>
@@ -1574,19 +769,25 @@
       <c r="V5" t="n">
         <v>5814</v>
       </c>
-      <c r="W5" t="s">
-        <v>10</v>
-      </c>
-      <c r="X5" t="s">
-        <v>11</v>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>ABAKEXCSB</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Bakery products,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y5" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ACOREXCSB</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>5259</v>
@@ -1651,19 +852,25 @@
       <c r="V6" t="n">
         <v>10171</v>
       </c>
-      <c r="W6" t="s">
-        <v>12</v>
-      </c>
-      <c r="X6" t="s">
-        <v>13</v>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>ACOREXCSB</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Corn,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y6" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ADPEEXCSB</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>729</v>
@@ -1728,19 +935,25 @@
       <c r="V7" t="n">
         <v>5443</v>
       </c>
-      <c r="W7" t="s">
-        <v>14</v>
-      </c>
-      <c r="X7" t="s">
-        <v>15</v>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>ADPEEXCSB</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Dairy products and eggs,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y7" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>AFSFEXCSB</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>3033</v>
@@ -1805,19 +1018,25 @@
       <c r="V8" t="n">
         <v>4576</v>
       </c>
-      <c r="W8" t="s">
-        <v>16</v>
-      </c>
-      <c r="X8" t="s">
-        <v>17</v>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>AFSFEXCSB</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Fish and shellfish,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y8" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>AFFJEXCSB</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>3977</v>
@@ -1882,19 +1101,25 @@
       <c r="V9" t="n">
         <v>8120</v>
       </c>
-      <c r="W9" t="s">
-        <v>18</v>
-      </c>
-      <c r="X9" t="s">
-        <v>19</v>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>AFFJEXCSB</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Fruits and frozen juices,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y9" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>AMPOEXCSB</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>7708</v>
@@ -1959,19 +1184,25 @@
       <c r="V10" t="n">
         <v>20480</v>
       </c>
-      <c r="W10" t="s">
-        <v>20</v>
-      </c>
-      <c r="X10" t="s">
-        <v>21</v>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>AMPOEXCSB</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Meat, poultry, etc.,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y10" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>ANAFEXCSB</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>535</v>
@@ -2036,19 +1267,25 @@
       <c r="V11" t="n">
         <v>439</v>
       </c>
-      <c r="W11" t="s">
-        <v>22</v>
-      </c>
-      <c r="X11" t="s">
-        <v>23</v>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>ANAFEXCSB</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Nonagricultural foods, etc.,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y11" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>ANUTEXCSB</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>1441</v>
@@ -2113,19 +1350,25 @@
       <c r="V12" t="n">
         <v>9279</v>
       </c>
-      <c r="W12" t="s">
-        <v>24</v>
-      </c>
-      <c r="X12" t="s">
-        <v>25</v>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>ANUTEXCSB</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Nuts,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y12" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>AOFOEXCSB</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>1016</v>
@@ -2190,19 +1433,25 @@
       <c r="V13" t="n">
         <v>2735</v>
       </c>
-      <c r="W13" t="s">
-        <v>26</v>
-      </c>
-      <c r="X13" t="s">
-        <v>27</v>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>AOFOEXCSB</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Food oils and oilseeds,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y13" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>AOTFEXCSB</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>4224</v>
@@ -2267,19 +1516,25 @@
       <c r="V14" t="n">
         <v>15680</v>
       </c>
-      <c r="W14" t="s">
-        <v>28</v>
-      </c>
-      <c r="X14" t="s">
-        <v>29</v>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>AOTFEXCSB</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Other foods,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y14" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>ARICEXCSB</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>918</v>
@@ -2344,19 +1599,25 @@
       <c r="V15" t="n">
         <v>2006</v>
       </c>
-      <c r="W15" t="s">
-        <v>30</v>
-      </c>
-      <c r="X15" t="s">
-        <v>31</v>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>ARICEXCSB</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Rice,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y15" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>ASBOEXCSB</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>742</v>
@@ -2421,19 +1682,25 @@
       <c r="V16" t="n">
         <v>1473</v>
       </c>
-      <c r="W16" t="s">
-        <v>32</v>
-      </c>
-      <c r="X16" t="s">
-        <v>33</v>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>ASBOEXCSB</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Sorghum, barley, oats,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y16" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>ASOYEXCSB</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>5383</v>
@@ -2498,19 +1765,25 @@
       <c r="V17" t="n">
         <v>26592</v>
       </c>
-      <c r="W17" t="s">
-        <v>34</v>
-      </c>
-      <c r="X17" t="s">
-        <v>35</v>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>ASOYEXCSB</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Soybeans,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y17" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="1" t="s">
-        <v>36</v>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>AVEGEXCSB</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>2939</v>
@@ -2575,19 +1848,25 @@
       <c r="V18" t="n">
         <v>6830</v>
       </c>
-      <c r="W18" t="s">
-        <v>36</v>
-      </c>
-      <c r="X18" t="s">
-        <v>37</v>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>AVEGEXCSB</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Vegetables,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y18" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="1" t="s">
-        <v>38</v>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>AWHTEXCSB</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>3500</v>
@@ -2652,19 +1931,25 @@
       <c r="V19" t="n">
         <v>6472</v>
       </c>
-      <c r="W19" t="s">
-        <v>38</v>
-      </c>
-      <c r="X19" t="s">
-        <v>39</v>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>AWHTEXCSB</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Wheat,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y19" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>AWBPEXCSB</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>724</v>
@@ -2729,19 +2014,25 @@
       <c r="V20" t="n">
         <v>1908</v>
       </c>
-      <c r="W20" t="s">
-        <v>40</v>
-      </c>
-      <c r="X20" t="s">
-        <v>41</v>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>AWBPEXCSB</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Wine, beer, and related products,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y20" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
-      <c r="A21" s="1" t="s">
-        <v>42</v>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>AIDSEXCSB</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>172615</v>
@@ -2806,19 +2097,25 @@
       <c r="V21" t="n">
         <v>465916</v>
       </c>
-      <c r="W21" t="s">
-        <v>42</v>
-      </c>
-      <c r="X21" t="s">
-        <v>43</v>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>AIDSEXCSB</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Industrial Supplies and Materials,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y21" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
-      <c r="A22" s="1" t="s">
-        <v>44</v>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>AAFUEXCSB</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>1488</v>
@@ -2883,19 +2180,25 @@
       <c r="V22" t="n">
         <v>3148</v>
       </c>
-      <c r="W22" t="s">
-        <v>44</v>
-      </c>
-      <c r="X22" t="s">
-        <v>45</v>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>AAFUEXCSB</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Agricultural farming-unmanufactured,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y22" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
-      <c r="A23" s="1" t="s">
-        <v>46</v>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>AAIUEXCSB</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>1070</v>
@@ -2960,19 +2263,25 @@
       <c r="V23" t="n">
         <v>4288</v>
       </c>
-      <c r="W23" t="s">
-        <v>46</v>
-      </c>
-      <c r="X23" t="s">
-        <v>47</v>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>AAIUEXCSB</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Agricultural industry-unmanufactured,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y23" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
-      <c r="A24" s="1" t="s">
-        <v>48</v>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>AOAMEXCSB</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>1480</v>
@@ -3037,19 +2346,25 @@
       <c r="V24" t="n">
         <v>3483</v>
       </c>
-      <c r="W24" t="s">
-        <v>48</v>
-      </c>
-      <c r="X24" t="s">
-        <v>49</v>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>AOAMEXCSB</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Agriculture-manufactured, other,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y24" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
-      <c r="A25" s="1" t="s">
-        <v>50</v>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>AALUEXCSB</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>3663</v>
@@ -3114,19 +2429,25 @@
       <c r="V25" t="n">
         <v>6142</v>
       </c>
-      <c r="W25" t="s">
-        <v>50</v>
-      </c>
-      <c r="X25" t="s">
-        <v>51</v>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>AALUEXCSB</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aluminum and alumina,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y25" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
-      <c r="A26" s="1" t="s">
-        <v>52</v>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>ATAVEXCSB</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>1555</v>
@@ -3191,19 +2512,25 @@
       <c r="V26" t="n">
         <v>94</v>
       </c>
-      <c r="W26" t="s">
-        <v>52</v>
-      </c>
-      <c r="X26" t="s">
-        <v>53</v>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>ATAVEXCSB</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Tapes, audio and visual,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y26" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
-      <c r="A27" s="1" t="s">
-        <v>54</v>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>ACMFEXCSB</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>4113</v>
@@ -3268,19 +2595,25 @@
       <c r="V27" t="n">
         <v>8170</v>
       </c>
-      <c r="W27" t="s">
-        <v>54</v>
-      </c>
-      <c r="X27" t="s">
-        <v>55</v>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>ACMFEXCSB</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Chemicals-fertilizers,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y27" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
-      <c r="A28" s="1" t="s">
-        <v>56</v>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>ACMIEXCSB</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>4178</v>
@@ -3345,19 +2678,25 @@
       <c r="V28" t="n">
         <v>8956</v>
       </c>
-      <c r="W28" t="s">
-        <v>56</v>
-      </c>
-      <c r="X28" t="s">
-        <v>57</v>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>ACMIEXCSB</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Chemicals-inorganic,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y28" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
-      <c r="A29" s="1" t="s">
-        <v>58</v>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>ACMOEXCSB</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>16404</v>
@@ -3422,19 +2761,25 @@
       <c r="V29" t="n">
         <v>26343</v>
       </c>
-      <c r="W29" t="s">
-        <v>58</v>
-      </c>
-      <c r="X29" t="s">
-        <v>59</v>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>ACMOEXCSB</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Chemicals-organic,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y29" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
-      <c r="A30" s="1" t="s">
-        <v>60</v>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>AOCMEXCSB</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>13590</v>
@@ -3499,19 +2844,25 @@
       <c r="V30" t="n">
         <v>33064</v>
       </c>
-      <c r="W30" t="s">
-        <v>60</v>
-      </c>
-      <c r="X30" t="s">
-        <v>61</v>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>AOCMEXCSB</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Chemicals-other,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y30" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
-      <c r="A31" s="1" t="s">
-        <v>62</v>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>AOCFEXCSB</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>1218</v>
@@ -3576,19 +2927,25 @@
       <c r="V31" t="n">
         <v>5408</v>
       </c>
-      <c r="W31" t="s">
-        <v>62</v>
-      </c>
-      <c r="X31" t="s">
-        <v>63</v>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>AOCFEXCSB</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Coal and related fuels,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y31" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
-      <c r="A32" s="1" t="s">
-        <v>64</v>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>ACOPEXCSB</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>1507</v>
@@ -3653,19 +3010,25 @@
       <c r="V32" t="n">
         <v>6384</v>
       </c>
-      <c r="W32" t="s">
-        <v>64</v>
-      </c>
-      <c r="X32" t="s">
-        <v>65</v>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>ACOPEXCSB</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Copper,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y32" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
-      <c r="A33" s="1" t="s">
-        <v>66</v>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>ACFCEXCSB</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>2340</v>
@@ -3730,19 +3093,25 @@
       <c r="V33" t="n">
         <v>1267</v>
       </c>
-      <c r="W33" t="s">
-        <v>66</v>
-      </c>
-      <c r="X33" t="s">
-        <v>67</v>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>ACFCEXCSB</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Cotton fiber cloth,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y33" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
-      <c r="A34" s="1" t="s">
-        <v>68</v>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>ACTREXCSB</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>1925</v>
@@ -3807,19 +3176,25 @@
       <c r="V34" t="n">
         <v>5961</v>
       </c>
-      <c r="W34" t="s">
-        <v>68</v>
-      </c>
-      <c r="X34" t="s">
-        <v>69</v>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>ACTREXCSB</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Cotton, raw,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y34" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
-      <c r="A35" s="1" t="s">
-        <v>70</v>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>ACDOEXCSB</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>498</v>
@@ -3884,19 +3259,25 @@
       <c r="V35" t="n">
         <v>49464</v>
       </c>
-      <c r="W35" t="s">
-        <v>70</v>
-      </c>
-      <c r="X35" t="s">
-        <v>71</v>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>ACDOEXCSB</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Crude oil,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y35" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
-      <c r="A36" s="1" t="s">
-        <v>72</v>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>AEENEXCSB</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>414</v>
@@ -3961,19 +3342,25 @@
       <c r="V36" t="n">
         <v>182</v>
       </c>
-      <c r="W36" t="s">
-        <v>72</v>
-      </c>
-      <c r="X36" t="s">
-        <v>73</v>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>AEENEXCSB</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Electric energy,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y36" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
-      <c r="A37" s="1" t="s">
-        <v>74</v>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>AFMSEXCSB</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>10614</v>
@@ -4038,19 +3425,25 @@
       <c r="V37" t="n">
         <v>17726</v>
       </c>
-      <c r="W37" t="s">
-        <v>74</v>
-      </c>
-      <c r="X37" t="s">
-        <v>75</v>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>AFMSEXCSB</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Finished metal shapes,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y37" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
-      <c r="A38" s="1" t="s">
-        <v>76</v>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>AFTSEXCSB</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>2271</v>
@@ -4115,19 +3508,25 @@
       <c r="V38" t="n">
         <v>2597</v>
       </c>
-      <c r="W38" t="s">
-        <v>76</v>
-      </c>
-      <c r="X38" t="s">
-        <v>77</v>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>AFTSEXCSB</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Finished textile supplies,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y38" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
-      <c r="A39" s="1" t="s">
-        <v>78</v>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>AFULEXCSB</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>3005</v>
@@ -4192,19 +3591,25 @@
       <c r="V39" t="n">
         <v>26522</v>
       </c>
-      <c r="W39" t="s">
-        <v>78</v>
-      </c>
-      <c r="X39" t="s">
-        <v>79</v>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>AFULEXCSB</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Fuel oil,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y39" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
-      <c r="A40" s="1" t="s">
-        <v>80</v>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>ANGSEXCSB</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>411</v>
@@ -4269,19 +3674,25 @@
       <c r="V40" t="n">
         <v>18516</v>
       </c>
-      <c r="W40" t="s">
-        <v>80</v>
-      </c>
-      <c r="X40" t="s">
-        <v>81</v>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>ANGSEXCSB</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Gas-natural,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y40" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
-      <c r="A41" s="1" t="s">
-        <v>82</v>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>AGPSEXCSB</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>1024</v>
@@ -4346,19 +3757,25 @@
       <c r="V41" t="n">
         <v>1195</v>
       </c>
-      <c r="W41" t="s">
-        <v>82</v>
-      </c>
-      <c r="X41" t="s">
-        <v>83</v>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>AGPSEXCSB</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Glass-plate, sheet, etc.,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y41" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
-      <c r="A42" s="1" t="s">
-        <v>84</v>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>AHWMEXCSB</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>528</v>
@@ -4423,19 +3840,25 @@
       <c r="V42" t="n">
         <v>482</v>
       </c>
-      <c r="W42" t="s">
-        <v>84</v>
-      </c>
-      <c r="X42" t="s">
-        <v>85</v>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>AHWMEXCSB</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Hair and waste materials,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y42" t="n">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
-      <c r="A43" s="1" t="s">
-        <v>86</v>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>AHSKEXCSB</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>1601</v>
@@ -4500,19 +3923,25 @@
       <c r="V43" t="n">
         <v>835</v>
       </c>
-      <c r="W43" t="s">
-        <v>86</v>
-      </c>
-      <c r="X43" t="s">
-        <v>87</v>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>AHSKEXCSB</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Hides and skins,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y43" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
-      <c r="A44" s="1" t="s">
-        <v>88</v>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>AIRPEXCSB</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>2510</v>
@@ -4577,19 +4006,25 @@
       <c r="V44" t="n">
         <v>4108</v>
       </c>
-      <c r="W44" t="s">
-        <v>88</v>
-      </c>
-      <c r="X44" t="s">
-        <v>89</v>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>AIRPEXCSB</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Industrial rubber products,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y44" t="n">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
-      <c r="A45" s="1" t="s">
-        <v>90</v>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>AOISEXCSB</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>15899</v>
@@ -4654,19 +4089,25 @@
       <c r="V45" t="n">
         <v>25588</v>
       </c>
-      <c r="W45" t="s">
-        <v>90</v>
-      </c>
-      <c r="X45" t="s">
-        <v>91</v>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>AOISEXCSB</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Other industrial supplies,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y45" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
-      <c r="A46" s="1" t="s">
-        <v>92</v>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>AISMEXCSB</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>3625</v>
@@ -4731,19 +4172,25 @@
       <c r="V46" t="n">
         <v>6580</v>
       </c>
-      <c r="W46" t="s">
-        <v>92</v>
-      </c>
-      <c r="X46" t="s">
-        <v>93</v>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>AISMEXCSB</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Iron and steel mill products,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y46" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
-      <c r="A47" s="1" t="s">
-        <v>94</v>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>AIRSEXCSB</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>3203</v>
@@ -4808,19 +4255,25 @@
       <c r="V47" t="n">
         <v>5278</v>
       </c>
-      <c r="W47" t="s">
-        <v>94</v>
-      </c>
-      <c r="X47" t="s">
-        <v>95</v>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>AIRSEXCSB</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Iron and steel products, n.e.c.,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y47" t="n">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
-      <c r="A48" s="1" t="s">
-        <v>96</v>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>ALTFEXCSB</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>923</v>
@@ -4885,19 +4338,25 @@
       <c r="V48" t="n">
         <v>552</v>
       </c>
-      <c r="W48" t="s">
-        <v>96</v>
-      </c>
-      <c r="X48" t="s">
-        <v>97</v>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>ALTFEXCSB</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Leather and furs,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y48" t="n">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
-      <c r="A49" s="1" t="s">
-        <v>98</v>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>ALLBEXCSB</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>4344</v>
@@ -4962,19 +4421,25 @@
       <c r="V49" t="n">
         <v>4848</v>
       </c>
-      <c r="W49" t="s">
-        <v>98</v>
-      </c>
-      <c r="X49" t="s">
-        <v>99</v>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>ALLBEXCSB</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Logs and lumber,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y49" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
-      <c r="A50" s="1" t="s">
-        <v>100</v>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>AMMCEXCSB</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>5304</v>
@@ -5039,19 +4504,25 @@
       <c r="V50" t="n">
         <v>5647</v>
       </c>
-      <c r="W50" t="s">
-        <v>100</v>
-      </c>
-      <c r="X50" t="s">
-        <v>101</v>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>AMMCEXCSB</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Manmade cloth,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y50" t="n">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
-      <c r="A51" s="1" t="s">
-        <v>102</v>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>AMGCEXCSB</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>1379</v>
@@ -5116,19 +4587,25 @@
       <c r="V51" t="n">
         <v>4531</v>
       </c>
-      <c r="W51" t="s">
-        <v>102</v>
-      </c>
-      <c r="X51" t="s">
-        <v>103</v>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>AMGCEXCSB</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Metallurgical grade coal,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y51" t="n">
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
-      <c r="A52" s="1" t="s">
-        <v>104</v>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>AMSMEXCSB</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>3514</v>
@@ -5193,19 +4670,25 @@
       <c r="V52" t="n">
         <v>5935</v>
       </c>
-      <c r="W52" t="s">
-        <v>104</v>
-      </c>
-      <c r="X52" t="s">
-        <v>105</v>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>AMSMEXCSB</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Mineral supplies-manufactured,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y52" t="n">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
-      <c r="A53" s="1" t="s">
-        <v>106</v>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>ANGLEXCSB</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>928</v>
@@ -5270,19 +4753,25 @@
       <c r="V53" t="n">
         <v>16072</v>
       </c>
-      <c r="W53" t="s">
-        <v>106</v>
-      </c>
-      <c r="X53" t="s">
-        <v>107</v>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>ANGLEXCSB</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Liquified petroleum gases,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y53" t="n">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
-      <c r="A54" s="1" t="s">
-        <v>108</v>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>ANWPEXCSB</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>9192</v>
@@ -5347,19 +4836,25 @@
       <c r="V54" t="n">
         <v>11734</v>
       </c>
-      <c r="W54" t="s">
-        <v>108</v>
-      </c>
-      <c r="X54" t="s">
-        <v>109</v>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>ANWPEXCSB</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Newsprint,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y54" t="n">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
-      <c r="A55" s="1" t="s">
-        <v>110</v>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>AONMEXCSB</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>2373</v>
@@ -5424,19 +4919,25 @@
       <c r="V55" t="n">
         <v>6197</v>
       </c>
-      <c r="W55" t="s">
-        <v>110</v>
-      </c>
-      <c r="X55" t="s">
-        <v>111</v>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>AONMEXCSB</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Nonferrous metals, other,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y55" t="n">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
-      <c r="A56" s="1" t="s">
-        <v>112</v>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>ANMMEXCSB</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>525</v>
@@ -5501,19 +5002,25 @@
       <c r="V56" t="n">
         <v>621</v>
       </c>
-      <c r="W56" t="s">
-        <v>112</v>
-      </c>
-      <c r="X56" t="s">
-        <v>113</v>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>ANMMEXCSB</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Nonmetallic minerals,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y56" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
-      <c r="A57" s="1" t="s">
-        <v>114</v>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>ANMGEXCSB</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>6027</v>
@@ -5578,19 +5085,25 @@
       <c r="V57" t="n">
         <v>23235</v>
       </c>
-      <c r="W57" t="s">
-        <v>114</v>
-      </c>
-      <c r="X57" t="s">
-        <v>115</v>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>ANMGEXCSB</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Nonmonetary gold,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y57" t="n">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
-      <c r="A58" s="1" t="s">
-        <v>116</v>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>ANFTEXCSB</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>375</v>
@@ -5655,19 +5168,25 @@
       <c r="V58" t="n">
         <v>431</v>
       </c>
-      <c r="W58" t="s">
-        <v>116</v>
-      </c>
-      <c r="X58" t="s">
-        <v>117</v>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>ANFTEXCSB</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Nontextile floor tiles,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y58" t="n">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
-      <c r="A59" s="1" t="s">
-        <v>118</v>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>ANUFEXCSB</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>1181</v>
@@ -5732,19 +5251,25 @@
       <c r="V59" t="n">
         <v>791</v>
       </c>
-      <c r="W59" t="s">
-        <v>118</v>
-      </c>
-      <c r="X59" t="s">
-        <v>119</v>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>ANUFEXCSB</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Nuclear fuel materials,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y59" t="n">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
-      <c r="A60" s="1" t="s">
-        <v>120</v>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>AOPPEXCSB</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>7581</v>
@@ -5809,19 +5334,25 @@
       <c r="V60" t="n">
         <v>38672</v>
       </c>
-      <c r="W60" t="s">
-        <v>120</v>
-      </c>
-      <c r="X60" t="s">
-        <v>121</v>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>AOPPEXCSB</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Petroleum products, other,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y60" t="n">
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
-      <c r="A61" s="1" t="s">
-        <v>122</v>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>APLAEXCSB</t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>13957</v>
@@ -5886,19 +5417,25 @@
       <c r="V61" t="n">
         <v>34280</v>
       </c>
-      <c r="W61" t="s">
-        <v>122</v>
-      </c>
-      <c r="X61" t="s">
-        <v>123</v>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>APLAEXCSB</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Plastic materials,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y61" t="n">
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
-      <c r="A62" s="1" t="s">
-        <v>124</v>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>AOPMEXCSB</t>
+        </is>
       </c>
       <c r="B62" t="n">
         <v>2475</v>
@@ -5963,19 +5500,25 @@
       <c r="V62" t="n">
         <v>17733</v>
       </c>
-      <c r="W62" t="s">
-        <v>124</v>
-      </c>
-      <c r="X62" t="s">
-        <v>125</v>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>AOPMEXCSB</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Other precious metals,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y62" t="n">
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
-      <c r="A63" s="1" t="s">
-        <v>126</v>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>APWPEXCSB</t>
+        </is>
       </c>
       <c r="B63" t="n">
         <v>4809</v>
@@ -6040,19 +5583,25 @@
       <c r="V63" t="n">
         <v>7607</v>
       </c>
-      <c r="W63" t="s">
-        <v>126</v>
-      </c>
-      <c r="X63" t="s">
-        <v>127</v>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>APWPEXCSB</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Pulpwood and woodpulp,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y63" t="n">
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
-      <c r="A64" s="1" t="s">
-        <v>128</v>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>ASMWEXCSB</t>
+        </is>
       </c>
       <c r="B64" t="n">
         <v>2019</v>
@@ -6117,19 +5666,25 @@
       <c r="V64" t="n">
         <v>4059</v>
       </c>
-      <c r="W64" t="s">
-        <v>128</v>
-      </c>
-      <c r="X64" t="s">
-        <v>129</v>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>ASMWEXCSB</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Shingles, molding and wallboard,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y64" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
-      <c r="A65" s="1" t="s">
-        <v>130</v>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>ASMMEXCSB</t>
+        </is>
       </c>
       <c r="B65" t="n">
         <v>1718</v>
@@ -6194,19 +5749,25 @@
       <c r="V65" t="n">
         <v>6929</v>
       </c>
-      <c r="W65" t="s">
-        <v>130</v>
-      </c>
-      <c r="X65" t="s">
-        <v>131</v>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>ASMMEXCSB</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Steelmaking materials,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y65" t="n">
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
-      <c r="A66" s="1" t="s">
-        <v>132</v>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>ASRPEXCSB</t>
+        </is>
       </c>
       <c r="B66" t="n">
         <v>1665</v>
@@ -6271,19 +5832,25 @@
       <c r="V66" t="n">
         <v>2586</v>
       </c>
-      <c r="W66" t="s">
-        <v>132</v>
-      </c>
-      <c r="X66" t="s">
-        <v>133</v>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>ASRPEXCSB</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>Synthetic rubber-primary,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y66" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
-      <c r="A67" s="1" t="s">
-        <v>134</v>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>ATBUEXCSB</t>
+        </is>
       </c>
       <c r="B67" t="n">
         <v>1196</v>
@@ -6348,19 +5915,25 @@
       <c r="V67" t="n">
         <v>677</v>
       </c>
-      <c r="W67" t="s">
-        <v>134</v>
-      </c>
-      <c r="X67" t="s">
-        <v>135</v>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>ATBUEXCSB</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>Tobacco, waxes, etc.,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y67" t="n">
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
-      <c r="A68" s="1" t="s">
-        <v>136</v>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>AWSMEXCSB</t>
+        </is>
       </c>
       <c r="B68" t="n">
         <v>993</v>
@@ -6425,19 +5998,25 @@
       <c r="V68" t="n">
         <v>998</v>
       </c>
-      <c r="W68" t="s">
-        <v>136</v>
-      </c>
-      <c r="X68" t="s">
-        <v>137</v>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>AWSMEXCSB</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>Wood supplies, manufactured,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y68" t="n">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
-      <c r="A69" s="1" t="s">
-        <v>138</v>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>ACPGEXCSB</t>
+        </is>
       </c>
       <c r="B69" t="n">
         <v>356934</v>
@@ -6502,19 +6081,25 @@
       <c r="V69" t="n">
         <v>460297</v>
       </c>
-      <c r="W69" t="s">
-        <v>138</v>
-      </c>
-      <c r="X69" t="s">
-        <v>139</v>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>ACPGEXCSB</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>Capital Goods,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y69" t="n">
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:25">
-      <c r="A70" s="1" t="s">
-        <v>140</v>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>AAMEEXCSB</t>
+        </is>
       </c>
       <c r="B70" t="n">
         <v>3474</v>
@@ -6579,19 +6164,25 @@
       <c r="V70" t="n">
         <v>6455</v>
       </c>
-      <c r="W70" t="s">
-        <v>140</v>
-      </c>
-      <c r="X70" t="s">
-        <v>141</v>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>AAMEEXCSB</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>Agricultural machinery and equipment,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y70" t="n">
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
-      <c r="A71" s="1" t="s">
-        <v>142</v>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>ABMEEXCSB</t>
+        </is>
       </c>
       <c r="B71" t="n">
         <v>3201</v>
@@ -6656,19 +6247,25 @@
       <c r="V71" t="n">
         <v>1892</v>
       </c>
-      <c r="W71" t="s">
-        <v>142</v>
-      </c>
-      <c r="X71" t="s">
-        <v>143</v>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>ABMEEXCSB</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>Business machines and equipment,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y71" t="n">
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
-      <c r="A72" s="1" t="s">
-        <v>144</v>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>ACVAEXCSB</t>
+        </is>
       </c>
       <c r="B72" t="n">
         <v>22693</v>
@@ -6733,19 +6330,25 @@
       <c r="V72" t="n">
         <v>16564</v>
       </c>
-      <c r="W72" t="s">
-        <v>144</v>
-      </c>
-      <c r="X72" t="s">
-        <v>145</v>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>ACVAEXCSB</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>Civilian aircraft,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y72" t="n">
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
-      <c r="A73" s="1" t="s">
-        <v>146</v>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>AOCVEXCSB</t>
+        </is>
       </c>
       <c r="B73" t="n">
         <v>217</v>
@@ -6810,19 +6413,25 @@
       <c r="V73" t="n">
         <v>355</v>
       </c>
-      <c r="W73" t="s">
-        <v>146</v>
-      </c>
-      <c r="X73" t="s">
-        <v>147</v>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>AOCVEXCSB</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>Commercial vessels, other,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y73" t="n">
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:25">
-      <c r="A74" s="1" t="s">
-        <v>148</v>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>ACACEXCSB</t>
+        </is>
       </c>
       <c r="B74" t="n">
         <v>44242</v>
@@ -6887,19 +6496,25 @@
       <c r="V74" t="n">
         <v>25171</v>
       </c>
-      <c r="W74" t="s">
-        <v>148</v>
-      </c>
-      <c r="X74" t="s">
-        <v>149</v>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>ACACEXCSB</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>Computer accessories,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y74" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
-      <c r="A75" s="1" t="s">
-        <v>150</v>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>ACPTEXCSB</t>
+        </is>
       </c>
       <c r="B75" t="n">
         <v>11299</v>
@@ -6964,19 +6579,25 @@
       <c r="V75" t="n">
         <v>15967</v>
       </c>
-      <c r="W75" t="s">
-        <v>150</v>
-      </c>
-      <c r="X75" t="s">
-        <v>151</v>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>ACPTEXCSB</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>Computers,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y75" t="n">
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
-      <c r="A76" s="1" t="s">
-        <v>152</v>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>ADRLEXCSB</t>
+        </is>
       </c>
       <c r="B76" t="n">
         <v>4989</v>
@@ -7041,19 +6662,25 @@
       <c r="V76" t="n">
         <v>2787</v>
       </c>
-      <c r="W76" t="s">
-        <v>152</v>
-      </c>
-      <c r="X76" t="s">
-        <v>153</v>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>ADRLEXCSB</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>Drilling and oilfield equipment,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y76" t="n">
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
-      <c r="A77" s="1" t="s">
-        <v>154</v>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>AEAPEXCSB</t>
+        </is>
       </c>
       <c r="B77" t="n">
         <v>28666</v>
@@ -7118,19 +6745,25 @@
       <c r="V77" t="n">
         <v>38139</v>
       </c>
-      <c r="W77" t="s">
-        <v>154</v>
-      </c>
-      <c r="X77" t="s">
-        <v>155</v>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>AEAPEXCSB</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Electric apparatus,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y77" t="n">
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
-      <c r="A78" s="1" t="s">
-        <v>156</v>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>AECAEXCSB</t>
+        </is>
       </c>
       <c r="B78" t="n">
         <v>11796</v>
@@ -7195,19 +6828,25 @@
       <c r="V78" t="n">
         <v>37452</v>
       </c>
-      <c r="W78" t="s">
-        <v>156</v>
-      </c>
-      <c r="X78" t="s">
-        <v>157</v>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>AECAEXCSB</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Engines-civilian aircraft,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y78" t="n">
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
-      <c r="A79" s="1" t="s">
-        <v>158</v>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>AEXCEXCSB</t>
+        </is>
       </c>
       <c r="B79" t="n">
         <v>5926</v>
@@ -7272,19 +6911,25 @@
       <c r="V79" t="n">
         <v>9026</v>
       </c>
-      <c r="W79" t="s">
-        <v>158</v>
-      </c>
-      <c r="X79" t="s">
-        <v>159</v>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>AEXCEXCSB</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>Excavating machinery,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y79" t="n">
         <v>111</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
-      <c r="A80" s="1" t="s">
-        <v>160</v>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>AFTMEXCSB</t>
+        </is>
       </c>
       <c r="B80" t="n">
         <v>1859</v>
@@ -7349,19 +6994,25 @@
       <c r="V80" t="n">
         <v>3318</v>
       </c>
-      <c r="W80" t="s">
-        <v>160</v>
-      </c>
-      <c r="X80" t="s">
-        <v>161</v>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>AFTMEXCSB</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>Food and tobacco machinery,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y80" t="n">
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
-      <c r="A81" s="1" t="s">
-        <v>162</v>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>AGNAEXCSB</t>
+        </is>
       </c>
       <c r="B81" t="n">
         <v>7101</v>
@@ -7426,19 +7077,25 @@
       <c r="V81" t="n">
         <v>11516</v>
       </c>
-      <c r="W81" t="s">
-        <v>162</v>
-      </c>
-      <c r="X81" t="s">
-        <v>163</v>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>AGNAEXCSB</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>Generators and accessories,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y81" t="n">
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
-      <c r="A82" s="1" t="s">
-        <v>164</v>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>AIDEEXCSB</t>
+        </is>
       </c>
       <c r="B82" t="n">
         <v>11603</v>
@@ -7503,19 +7160,25 @@
       <c r="V82" t="n">
         <v>21598</v>
       </c>
-      <c r="W82" t="s">
-        <v>164</v>
-      </c>
-      <c r="X82" t="s">
-        <v>165</v>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>AIDEEXCSB</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>Industrial engines,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y82" t="n">
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
-      <c r="A83" s="1" t="s">
-        <v>166</v>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>AOIMEXCSB</t>
+        </is>
       </c>
       <c r="B83" t="n">
         <v>28408</v>
@@ -7580,19 +7243,25 @@
       <c r="V83" t="n">
         <v>57343</v>
       </c>
-      <c r="W83" t="s">
-        <v>166</v>
-      </c>
-      <c r="X83" t="s">
-        <v>167</v>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>AOIMEXCSB</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Industrial machines, other,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y83" t="n">
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
-      <c r="A84" s="1" t="s">
-        <v>168</v>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>ALABEXCSB</t>
+        </is>
       </c>
       <c r="B84" t="n">
         <v>5509</v>
@@ -7657,19 +7326,25 @@
       <c r="V84" t="n">
         <v>11977</v>
       </c>
-      <c r="W84" t="s">
-        <v>168</v>
-      </c>
-      <c r="X84" t="s">
-        <v>169</v>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>ALABEXCSB</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>Laboratory testing instruments,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y84" t="n">
         <v>116</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
-      <c r="A85" s="1" t="s">
-        <v>170</v>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>AMEPEXCSB</t>
+        </is>
       </c>
       <c r="B85" t="n">
         <v>754</v>
@@ -7734,19 +7409,25 @@
       <c r="V85" t="n">
         <v>1034</v>
       </c>
-      <c r="W85" t="s">
-        <v>170</v>
-      </c>
-      <c r="X85" t="s">
-        <v>171</v>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>AMEPEXCSB</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>Marine engines and parts,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y85" t="n">
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
-      <c r="A86" s="1" t="s">
-        <v>172</v>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>AMHEEXCSB</t>
+        </is>
       </c>
       <c r="B86" t="n">
         <v>5516</v>
@@ -7811,19 +7492,25 @@
       <c r="V86" t="n">
         <v>10379</v>
       </c>
-      <c r="W86" t="s">
-        <v>172</v>
-      </c>
-      <c r="X86" t="s">
-        <v>173</v>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>AMHEEXCSB</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>Materials handling equipment,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y86" t="n">
         <v>118</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
-      <c r="A87" s="1" t="s">
-        <v>174</v>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>AMTCEXCSB</t>
+        </is>
       </c>
       <c r="B87" t="n">
         <v>16369</v>
@@ -7888,19 +7575,25 @@
       <c r="V87" t="n">
         <v>22316</v>
       </c>
-      <c r="W87" t="s">
-        <v>174</v>
-      </c>
-      <c r="X87" t="s">
-        <v>175</v>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>AMTCEXCSB</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>Measuring, testing and control instruments,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y87" t="n">
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
-      <c r="A88" s="1" t="s">
-        <v>176</v>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>AMEDEXCSB</t>
+        </is>
       </c>
       <c r="B88" t="n">
         <v>13800</v>
@@ -7965,19 +7658,25 @@
       <c r="V88" t="n">
         <v>36694</v>
       </c>
-      <c r="W88" t="s">
-        <v>176</v>
-      </c>
-      <c r="X88" t="s">
-        <v>177</v>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>AMEDEXCSB</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>Medical equipment,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y88" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
-      <c r="A89" s="1" t="s">
-        <v>178</v>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>AMMTEXCSB</t>
+        </is>
       </c>
       <c r="B89" t="n">
         <v>7468</v>
@@ -8042,19 +7741,25 @@
       <c r="V89" t="n">
         <v>5104</v>
       </c>
-      <c r="W89" t="s">
-        <v>178</v>
-      </c>
-      <c r="X89" t="s">
-        <v>179</v>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>AMMTEXCSB</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>Metalworking machine tools,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y89" t="n">
         <v>121</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
-      <c r="A90" s="1" t="s">
-        <v>180</v>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>ANFPEXCSB</t>
+        </is>
       </c>
       <c r="B90" t="n">
         <v>1206</v>
@@ -8119,19 +7824,25 @@
       <c r="V90" t="n">
         <v>2844</v>
       </c>
-      <c r="W90" t="s">
-        <v>180</v>
-      </c>
-      <c r="X90" t="s">
-        <v>181</v>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>ANFPEXCSB</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>Nonfarming tractors and parts,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y90" t="n">
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
-      <c r="A91" s="1" t="s">
-        <v>182</v>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>APCAEXCSB</t>
+        </is>
       </c>
       <c r="B91" t="n">
         <v>13601</v>
@@ -8196,19 +7907,25 @@
       <c r="V91" t="n">
         <v>17922</v>
       </c>
-      <c r="W91" t="s">
-        <v>182</v>
-      </c>
-      <c r="X91" t="s">
-        <v>183</v>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>APCAEXCSB</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>Parts-civilian aircraft,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y91" t="n">
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
-      <c r="A92" s="1" t="s">
-        <v>184</v>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>APHSEXCSB</t>
+        </is>
       </c>
       <c r="B92" t="n">
         <v>6238</v>
@@ -8273,19 +7990,25 @@
       <c r="V92" t="n">
         <v>7822</v>
       </c>
-      <c r="W92" t="s">
-        <v>184</v>
-      </c>
-      <c r="X92" t="s">
-        <v>185</v>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>APHSEXCSB</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>Photo and service industry machinery,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y92" t="n">
         <v>124</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
-      <c r="A93" s="1" t="s">
-        <v>186</v>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>APPMEXCSB</t>
+        </is>
       </c>
       <c r="B93" t="n">
         <v>3180</v>
@@ -8350,19 +8073,25 @@
       <c r="V93" t="n">
         <v>2042</v>
       </c>
-      <c r="W93" t="s">
-        <v>186</v>
-      </c>
-      <c r="X93" t="s">
-        <v>187</v>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>APPMEXCSB</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>Pulp and paper machinery,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y93" t="n">
         <v>125</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
-      <c r="A94" s="1" t="s">
-        <v>188</v>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>ARTEEXCSB</t>
+        </is>
       </c>
       <c r="B94" t="n">
         <v>1462</v>
@@ -8427,19 +8156,25 @@
       <c r="V94" t="n">
         <v>2936</v>
       </c>
-      <c r="W94" t="s">
-        <v>188</v>
-      </c>
-      <c r="X94" t="s">
-        <v>189</v>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>ARTEEXCSB</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>Railway transportation equipment,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y94" t="n">
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
-      <c r="A95" s="1" t="s">
-        <v>190</v>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>ASCDEXCSB</t>
+        </is>
       </c>
       <c r="B95" t="n">
         <v>60078</v>
@@ -8504,19 +8239,25 @@
       <c r="V95" t="n">
         <v>55143</v>
       </c>
-      <c r="W95" t="s">
-        <v>190</v>
-      </c>
-      <c r="X95" t="s">
-        <v>191</v>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>ASCDEXCSB</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>Semiconductors,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y95" t="n">
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:25">
-      <c r="A96" s="1" t="s">
-        <v>192</v>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>ASPCEXCSB</t>
+        </is>
       </c>
       <c r="B96" t="n">
         <v>24</v>
@@ -8581,19 +8322,25 @@
       <c r="V96" t="n">
         <v>216</v>
       </c>
-      <c r="W96" t="s">
-        <v>192</v>
-      </c>
-      <c r="X96" t="s">
-        <v>193</v>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>ASPCEXCSB</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>Spacecraft, excluding military,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y96" t="n">
         <v>128</v>
       </c>
     </row>
-    <row r="97" spans="1:25">
-      <c r="A97" s="1" t="s">
-        <v>194</v>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>ASPMEXCSB</t>
+        </is>
       </c>
       <c r="B97" t="n">
         <v>477</v>
@@ -8658,19 +8405,25 @@
       <c r="V97" t="n">
         <v>857</v>
       </c>
-      <c r="W97" t="s">
-        <v>194</v>
-      </c>
-      <c r="X97" t="s">
-        <v>195</v>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>ASPMEXCSB</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>Specialized mining,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y97" t="n">
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:25">
-      <c r="A98" s="1" t="s">
-        <v>196</v>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>ATELEXCSB</t>
+        </is>
       </c>
       <c r="B98" t="n">
         <v>31267</v>
@@ -8735,19 +8488,25 @@
       <c r="V98" t="n">
         <v>31055</v>
       </c>
-      <c r="W98" t="s">
-        <v>196</v>
-      </c>
-      <c r="X98" t="s">
-        <v>197</v>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>ATELEXCSB</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>Telecommunications equipment,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y98" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:25">
-      <c r="A99" s="1" t="s">
-        <v>198</v>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>ATSMEXCSB</t>
+        </is>
       </c>
       <c r="B99" t="n">
         <v>1217</v>
@@ -8812,19 +8571,25 @@
       <c r="V99" t="n">
         <v>821</v>
       </c>
-      <c r="W99" t="s">
-        <v>198</v>
-      </c>
-      <c r="X99" t="s">
-        <v>199</v>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>ATSMEXCSB</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>Textile, sewing machines,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y99" t="n">
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:25">
-      <c r="A100" s="1" t="s">
-        <v>200</v>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>AVESEXCSB</t>
+        </is>
       </c>
       <c r="B100" t="n">
         <v>44</v>
@@ -8889,19 +8654,25 @@
       <c r="V100" t="n">
         <v>36</v>
       </c>
-      <c r="W100" t="s">
-        <v>200</v>
-      </c>
-      <c r="X100" t="s">
-        <v>201</v>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>AVESEXCSB</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>Vessels, excluding scrap,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y100" t="n">
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="1:25">
-      <c r="A101" s="1" t="s">
-        <v>202</v>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>AWGPEXCSB</t>
+        </is>
       </c>
       <c r="B101" t="n">
         <v>3251</v>
@@ -8966,19 +8737,25 @@
       <c r="V101" t="n">
         <v>3516</v>
       </c>
-      <c r="W101" t="s">
-        <v>202</v>
-      </c>
-      <c r="X101" t="s">
-        <v>203</v>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>AWGPEXCSB</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>Wood, glass and plastic,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y101" t="n">
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
-      <c r="A102" s="1" t="s">
-        <v>204</v>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>AAMVEXCSB</t>
+        </is>
       </c>
       <c r="B102" t="n">
         <v>80356</v>
@@ -9043,35 +8820,41 @@
       <c r="V102" t="n">
         <v>127918</v>
       </c>
-      <c r="W102" t="s">
-        <v>204</v>
-      </c>
-      <c r="X102" t="s">
-        <v>205</v>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>AAMVEXCSB</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y102" t="n">
         <v>134</v>
       </c>
     </row>
-    <row r="103" spans="1:25">
-      <c r="A103" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
-      <c r="D103" t="s"/>
-      <c r="E103" t="s"/>
-      <c r="F103" t="s"/>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s"/>
-      <c r="J103" t="s"/>
-      <c r="K103" t="s"/>
-      <c r="L103" t="s"/>
-      <c r="M103" t="s"/>
-      <c r="N103" t="s"/>
-      <c r="O103" t="s"/>
-      <c r="P103" t="s"/>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>AATTEXCSB</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
       <c r="Q103" t="n">
         <v>3758</v>
       </c>
@@ -9090,35 +8873,41 @@
       <c r="V103" t="n">
         <v>2575</v>
       </c>
-      <c r="W103" t="s">
-        <v>206</v>
-      </c>
-      <c r="X103" t="s">
-        <v>207</v>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>AATTEXCSB</t>
+        </is>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>Automotive tires and tubes,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y103" t="n">
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
-      <c r="A104" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
-      <c r="D104" t="s"/>
-      <c r="E104" t="s"/>
-      <c r="F104" t="s"/>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s"/>
-      <c r="J104" t="s"/>
-      <c r="K104" t="s"/>
-      <c r="L104" t="s"/>
-      <c r="M104" t="s"/>
-      <c r="N104" t="s"/>
-      <c r="O104" t="s"/>
-      <c r="P104" t="s"/>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>ABCPEXCSB</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
       <c r="Q104" t="n">
         <v>606</v>
       </c>
@@ -9137,35 +8926,41 @@
       <c r="V104" t="n">
         <v>653</v>
       </c>
-      <c r="W104" t="s">
-        <v>208</v>
-      </c>
-      <c r="X104" t="s">
-        <v>209</v>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>ABCPEXCSB</t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>Bodies and chassis for passenger cars,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y104" t="n">
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="1:25">
-      <c r="A105" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
-      <c r="D105" t="s"/>
-      <c r="E105" t="s"/>
-      <c r="F105" t="s"/>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s"/>
-      <c r="J105" t="s"/>
-      <c r="K105" t="s"/>
-      <c r="L105" t="s"/>
-      <c r="M105" t="s"/>
-      <c r="N105" t="s"/>
-      <c r="O105" t="s"/>
-      <c r="P105" t="s"/>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>AENPEXCSB</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
       <c r="Q105" t="n">
         <v>17000</v>
       </c>
@@ -9184,35 +8979,41 @@
       <c r="V105" t="n">
         <v>17090</v>
       </c>
-      <c r="W105" t="s">
-        <v>210</v>
-      </c>
-      <c r="X105" t="s">
-        <v>211</v>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>AENPEXCSB</t>
+        </is>
+      </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>Engines and engine parts,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y105" t="n">
         <v>139</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
-      <c r="A106" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
-      <c r="D106" t="s"/>
-      <c r="E106" t="s"/>
-      <c r="F106" t="s"/>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s"/>
-      <c r="J106" t="s"/>
-      <c r="K106" t="s"/>
-      <c r="L106" t="s"/>
-      <c r="M106" t="s"/>
-      <c r="N106" t="s"/>
-      <c r="O106" t="s"/>
-      <c r="P106" t="s"/>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>AOPAEXCSB</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
       <c r="Q106" t="n">
         <v>58052</v>
       </c>
@@ -9231,35 +9032,41 @@
       <c r="V106" t="n">
         <v>44892</v>
       </c>
-      <c r="W106" t="s">
-        <v>212</v>
-      </c>
-      <c r="X106" t="s">
-        <v>213</v>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>AOPAEXCSB</t>
+        </is>
+      </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>Other parts and accessories of vehicles,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y106" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="107" spans="1:25">
-      <c r="A107" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
-      <c r="D107" t="s"/>
-      <c r="E107" t="s"/>
-      <c r="F107" t="s"/>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s"/>
-      <c r="J107" t="s"/>
-      <c r="K107" t="s"/>
-      <c r="L107" t="s"/>
-      <c r="M107" t="s"/>
-      <c r="N107" t="s"/>
-      <c r="O107" t="s"/>
-      <c r="P107" t="s"/>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>APSCEXCSB</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
       <c r="Q107" t="n">
         <v>54538</v>
       </c>
@@ -9278,35 +9085,41 @@
       <c r="V107" t="n">
         <v>45216</v>
       </c>
-      <c r="W107" t="s">
-        <v>214</v>
-      </c>
-      <c r="X107" t="s">
-        <v>215</v>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>APSCEXCSB</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>Passenger cars, new and used,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y107" t="n">
         <v>141</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
-      <c r="A108" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
-      <c r="D108" t="s"/>
-      <c r="E108" t="s"/>
-      <c r="F108" t="s"/>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s"/>
-      <c r="J108" t="s"/>
-      <c r="K108" t="s"/>
-      <c r="L108" t="s"/>
-      <c r="M108" t="s"/>
-      <c r="N108" t="s"/>
-      <c r="O108" t="s"/>
-      <c r="P108" t="s"/>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>ATBVEXCSB</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
       <c r="Q108" t="n">
         <v>17939</v>
       </c>
@@ -9325,19 +9138,25 @@
       <c r="V108" t="n">
         <v>17491</v>
       </c>
-      <c r="W108" t="s">
-        <v>216</v>
-      </c>
-      <c r="X108" t="s">
-        <v>217</v>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>ATBVEXCSB</t>
+        </is>
+      </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>Trucks, buses and special purpose vehicles,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y108" t="n">
         <v>142</v>
       </c>
     </row>
-    <row r="109" spans="1:25">
-      <c r="A109" s="1" t="s">
-        <v>218</v>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>ACGDEXCSB</t>
+        </is>
       </c>
       <c r="B109" t="n">
         <v>89377</v>
@@ -9402,19 +9221,25 @@
       <c r="V109" t="n">
         <v>174768</v>
       </c>
-      <c r="W109" t="s">
-        <v>218</v>
-      </c>
-      <c r="X109" t="s">
-        <v>219</v>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>ACGDEXCSB</t>
+        </is>
+      </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>Consumer Goods,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y109" t="n">
         <v>143</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
-      <c r="A110" s="1" t="s">
-        <v>220</v>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>ATAHEXCSB</t>
+        </is>
       </c>
       <c r="B110" t="n">
         <v>8922</v>
@@ -9479,19 +9304,25 @@
       <c r="V110" t="n">
         <v>6115</v>
       </c>
-      <c r="W110" t="s">
-        <v>220</v>
-      </c>
-      <c r="X110" t="s">
-        <v>221</v>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>ATAHEXCSB</t>
+        </is>
+      </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>Apparel and household goods - textile,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y110" t="n">
         <v>145</v>
       </c>
     </row>
-    <row r="111" spans="1:25">
-      <c r="A111" s="1" t="s">
-        <v>222</v>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>ANTAEXCSB</t>
+        </is>
       </c>
       <c r="B111" t="n">
         <v>1461</v>
@@ -9556,19 +9387,25 @@
       <c r="V111" t="n">
         <v>2525</v>
       </c>
-      <c r="W111" t="s">
-        <v>222</v>
-      </c>
-      <c r="X111" t="s">
-        <v>223</v>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>ANTAEXCSB</t>
+        </is>
+      </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>Apparel and household goods-nontextile,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y111" t="n">
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="1:25">
-      <c r="A112" s="1" t="s">
-        <v>224</v>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>AARTEXCSB</t>
+        </is>
       </c>
       <c r="B112" t="n">
         <v>3759</v>
@@ -9633,19 +9470,25 @@
       <c r="V112" t="n">
         <v>8238</v>
       </c>
-      <c r="W112" t="s">
-        <v>224</v>
-      </c>
-      <c r="X112" t="s">
-        <v>225</v>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>AARTEXCSB</t>
+        </is>
+      </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>Artwork, antiques, stamps, etc.,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y112" t="n">
         <v>149</v>
       </c>
     </row>
-    <row r="113" spans="1:25">
-      <c r="A113" s="1" t="s">
-        <v>226</v>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>AWASEXCSB</t>
+        </is>
       </c>
       <c r="B113" t="n">
         <v>5072</v>
@@ -9677,30 +9520,36 @@
       <c r="K113" t="n">
         <v>5943</v>
       </c>
-      <c r="L113" t="s"/>
-      <c r="M113" t="s"/>
-      <c r="N113" t="s"/>
-      <c r="O113" t="s"/>
-      <c r="P113" t="s"/>
-      <c r="Q113" t="s"/>
-      <c r="R113" t="s"/>
-      <c r="S113" t="s"/>
-      <c r="T113" t="s"/>
-      <c r="U113" t="s"/>
-      <c r="V113" t="s"/>
-      <c r="W113" t="s">
-        <v>226</v>
-      </c>
-      <c r="X113" t="s">
-        <v>227</v>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>AWASEXCSB</t>
+        </is>
+      </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>Writing and art supplies,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y113" t="n">
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:25">
-      <c r="A114" s="1" t="s">
-        <v>228</v>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>ABPMEXCSB</t>
+        </is>
       </c>
       <c r="B114" t="n">
         <v>4228</v>
@@ -9765,30 +9614,36 @@
       <c r="V114" t="n">
         <v>3564</v>
       </c>
-      <c r="W114" t="s">
-        <v>228</v>
-      </c>
-      <c r="X114" t="s">
-        <v>229</v>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>ABPMEXCSB</t>
+        </is>
+      </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>Books and printed matter,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y114" t="n">
         <v>151</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
-      <c r="A115" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
-      <c r="D115" t="s"/>
-      <c r="E115" t="s"/>
-      <c r="F115" t="s"/>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s"/>
-      <c r="J115" t="s"/>
-      <c r="K115" t="s"/>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>ACELEXCSB</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>19265</v>
       </c>
@@ -9822,19 +9677,25 @@
       <c r="V115" t="n">
         <v>24243</v>
       </c>
-      <c r="W115" t="s">
-        <v>230</v>
-      </c>
-      <c r="X115" t="s">
-        <v>231</v>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>ACELEXCSB</t>
+        </is>
+      </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>Cell phones and other household goods, n.e.c.,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y115" t="n">
         <v>153</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
-      <c r="A116" s="1" t="s">
-        <v>232</v>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>ACCTEXCSB</t>
+        </is>
       </c>
       <c r="B116" t="n">
         <v>792</v>
@@ -9899,19 +9760,25 @@
       <c r="V116" t="n">
         <v>1037</v>
       </c>
-      <c r="W116" t="s">
-        <v>232</v>
-      </c>
-      <c r="X116" t="s">
-        <v>233</v>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t>ACCTEXCSB</t>
+        </is>
+      </c>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>Cookware, cutlery and tools,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y116" t="n">
         <v>154</v>
       </c>
     </row>
-    <row r="117" spans="1:25">
-      <c r="A117" s="1" t="s">
-        <v>234</v>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>AFHGEXCSB</t>
+        </is>
       </c>
       <c r="B117" t="n">
         <v>2599</v>
@@ -9976,19 +9843,25 @@
       <c r="V117" t="n">
         <v>4189</v>
       </c>
-      <c r="W117" t="s">
-        <v>234</v>
-      </c>
-      <c r="X117" t="s">
-        <v>235</v>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>AFHGEXCSB</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>Furniture, household goods, etc.,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y117" t="n">
         <v>156</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
-      <c r="A118" s="1" t="s">
-        <v>236</v>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>AOHGEXCSB</t>
+        </is>
       </c>
       <c r="B118" t="n">
         <v>7999</v>
@@ -10020,30 +9893,36 @@
       <c r="K118" t="n">
         <v>16630</v>
       </c>
-      <c r="L118" t="s"/>
-      <c r="M118" t="s"/>
-      <c r="N118" t="s"/>
-      <c r="O118" t="s"/>
-      <c r="P118" t="s"/>
-      <c r="Q118" t="s"/>
-      <c r="R118" t="s"/>
-      <c r="S118" t="s"/>
-      <c r="T118" t="s"/>
-      <c r="U118" t="s"/>
-      <c r="V118" t="s"/>
-      <c r="W118" t="s">
-        <v>236</v>
-      </c>
-      <c r="X118" t="s">
-        <v>237</v>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>AOHGEXCSB</t>
+        </is>
+      </c>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>Other household goods,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y118" t="n">
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="1:25">
-      <c r="A119" s="1" t="s">
-        <v>238</v>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>AGEMEXCSB</t>
+        </is>
       </c>
       <c r="B119" t="n">
         <v>4433</v>
@@ -10108,19 +9987,25 @@
       <c r="V119" t="n">
         <v>11651</v>
       </c>
-      <c r="W119" t="s">
-        <v>238</v>
-      </c>
-      <c r="X119" t="s">
-        <v>239</v>
+      <c r="W119" t="inlineStr">
+        <is>
+          <t>AGEMEXCSB</t>
+        </is>
+      </c>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>Gem diamonds,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y119" t="n">
         <v>158</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
-      <c r="A120" s="1" t="s">
-        <v>240</v>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>AGCWEXCSB</t>
+        </is>
       </c>
       <c r="B120" t="n">
         <v>504</v>
@@ -10185,19 +10070,25 @@
       <c r="V120" t="n">
         <v>477</v>
       </c>
-      <c r="W120" t="s">
-        <v>240</v>
-      </c>
-      <c r="X120" t="s">
-        <v>241</v>
+      <c r="W120" t="inlineStr">
+        <is>
+          <t>AGCWEXCSB</t>
+        </is>
+      </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>Glassware and chinaware,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y120" t="n">
         <v>160</v>
       </c>
     </row>
-    <row r="121" spans="1:25">
-      <c r="A121" s="1" t="s">
-        <v>242</v>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>AAPPEXCSB</t>
+        </is>
       </c>
       <c r="B121" t="n">
         <v>5128</v>
@@ -10262,19 +10153,25 @@
       <c r="V121" t="n">
         <v>5785</v>
       </c>
-      <c r="W121" t="s">
-        <v>242</v>
-      </c>
-      <c r="X121" t="s">
-        <v>243</v>
+      <c r="W121" t="inlineStr">
+        <is>
+          <t>AAPPEXCSB</t>
+        </is>
+      </c>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t>Household appliances,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y121" t="n">
         <v>161</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
-      <c r="A122" s="1" t="s">
-        <v>244</v>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>AJLREXCSB</t>
+        </is>
       </c>
       <c r="B122" t="n">
         <v>2454</v>
@@ -10339,19 +10236,25 @@
       <c r="V122" t="n">
         <v>6907</v>
       </c>
-      <c r="W122" t="s">
-        <v>244</v>
-      </c>
-      <c r="X122" t="s">
-        <v>245</v>
+      <c r="W122" t="inlineStr">
+        <is>
+          <t>AJLREXCSB</t>
+        </is>
+      </c>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>Jewelry, etc.,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y122" t="n">
         <v>162</v>
       </c>
     </row>
-    <row r="123" spans="1:25">
-      <c r="A123" s="1" t="s">
-        <v>246</v>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>AMUSEXCSB</t>
+        </is>
       </c>
       <c r="B123" t="n">
         <v>1061</v>
@@ -10416,19 +10319,25 @@
       <c r="V123" t="n">
         <v>1797</v>
       </c>
-      <c r="W123" t="s">
-        <v>246</v>
-      </c>
-      <c r="X123" t="s">
-        <v>247</v>
+      <c r="W123" t="inlineStr">
+        <is>
+          <t>AMUSEXCSB</t>
+        </is>
+      </c>
+      <c r="X123" t="inlineStr">
+        <is>
+          <t>Musical instruments,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y123" t="n">
         <v>164</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
-      <c r="A124" s="1" t="s">
-        <v>248</v>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>ANMCEXCSB</t>
+        </is>
       </c>
       <c r="B124" t="n">
         <v>119</v>
@@ -10493,19 +10402,25 @@
       <c r="V124" t="n">
         <v>1450</v>
       </c>
-      <c r="W124" t="s">
-        <v>248</v>
-      </c>
-      <c r="X124" t="s">
-        <v>249</v>
+      <c r="W124" t="inlineStr">
+        <is>
+          <t>ANMCEXCSB</t>
+        </is>
+      </c>
+      <c r="X124" t="inlineStr">
+        <is>
+          <t>Numismatic coins,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y124" t="n">
         <v>165</v>
       </c>
     </row>
-    <row r="125" spans="1:25">
-      <c r="A125" s="1" t="s">
-        <v>250</v>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>ANUREXCSB</t>
+        </is>
       </c>
       <c r="B125" t="n">
         <v>291</v>
@@ -10570,30 +10485,36 @@
       <c r="V125" t="n">
         <v>429</v>
       </c>
-      <c r="W125" t="s">
-        <v>250</v>
-      </c>
-      <c r="X125" t="s">
-        <v>251</v>
+      <c r="W125" t="inlineStr">
+        <is>
+          <t>ANUREXCSB</t>
+        </is>
+      </c>
+      <c r="X125" t="inlineStr">
+        <is>
+          <t>Nursery stock, etc.,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y125" t="n">
         <v>166</v>
       </c>
     </row>
-    <row r="126" spans="1:25">
-      <c r="A126" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B126" t="s"/>
-      <c r="C126" t="s"/>
-      <c r="D126" t="s"/>
-      <c r="E126" t="s"/>
-      <c r="F126" t="s"/>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s"/>
-      <c r="J126" t="s"/>
-      <c r="K126" t="s"/>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>AOCNEXCSB</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>6881</v>
       </c>
@@ -10627,19 +10548,25 @@
       <c r="V126" t="n">
         <v>6485</v>
       </c>
-      <c r="W126" t="s">
-        <v>252</v>
-      </c>
-      <c r="X126" t="s">
-        <v>253</v>
+      <c r="W126" t="inlineStr">
+        <is>
+          <t>AOCNEXCSB</t>
+        </is>
+      </c>
+      <c r="X126" t="inlineStr">
+        <is>
+          <t>Other consumer nondurables,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y126" t="n">
         <v>167</v>
       </c>
     </row>
-    <row r="127" spans="1:25">
-      <c r="A127" s="1" t="s">
-        <v>254</v>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>APHAEXCSB</t>
+        </is>
       </c>
       <c r="B127" t="n">
         <v>14313</v>
@@ -10704,19 +10631,25 @@
       <c r="V127" t="n">
         <v>59212</v>
       </c>
-      <c r="W127" t="s">
-        <v>254</v>
-      </c>
-      <c r="X127" t="s">
-        <v>255</v>
+      <c r="W127" t="inlineStr">
+        <is>
+          <t>APHAEXCSB</t>
+        </is>
+      </c>
+      <c r="X127" t="inlineStr">
+        <is>
+          <t>Pharmaceutical preparations,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y127" t="n">
         <v>168</v>
       </c>
     </row>
-    <row r="128" spans="1:25">
-      <c r="A128" s="1" t="s">
-        <v>256</v>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>APBMEXCSB</t>
+        </is>
       </c>
       <c r="B128" t="n">
         <v>1239</v>
@@ -10781,19 +10714,25 @@
       <c r="V128" t="n">
         <v>2146</v>
       </c>
-      <c r="W128" t="s">
-        <v>256</v>
-      </c>
-      <c r="X128" t="s">
-        <v>257</v>
+      <c r="W128" t="inlineStr">
+        <is>
+          <t>APBMEXCSB</t>
+        </is>
+      </c>
+      <c r="X128" t="inlineStr">
+        <is>
+          <t>Pleasure boats and motors,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y128" t="n">
         <v>170</v>
       </c>
     </row>
-    <row r="129" spans="1:25">
-      <c r="A129" s="1" t="s">
-        <v>258</v>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>ARCMEXCSB</t>
+        </is>
       </c>
       <c r="B129" t="n">
         <v>3834</v>
@@ -10858,19 +10797,25 @@
       <c r="V129" t="n">
         <v>1329</v>
       </c>
-      <c r="W129" t="s">
-        <v>258</v>
-      </c>
-      <c r="X129" t="s">
-        <v>259</v>
+      <c r="W129" t="inlineStr">
+        <is>
+          <t>ARCMEXCSB</t>
+        </is>
+      </c>
+      <c r="X129" t="inlineStr">
+        <is>
+          <t>Recorded media,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y129" t="n">
         <v>171</v>
       </c>
     </row>
-    <row r="130" spans="1:25">
-      <c r="A130" s="1" t="s">
-        <v>260</v>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>ARUGEXCSB</t>
+        </is>
       </c>
       <c r="B130" t="n">
         <v>804</v>
@@ -10935,19 +10880,25 @@
       <c r="V130" t="n">
         <v>751</v>
       </c>
-      <c r="W130" t="s">
-        <v>260</v>
-      </c>
-      <c r="X130" t="s">
-        <v>261</v>
+      <c r="W130" t="inlineStr">
+        <is>
+          <t>ARUGEXCSB</t>
+        </is>
+      </c>
+      <c r="X130" t="inlineStr">
+        <is>
+          <t>Rugs,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y130" t="n">
         <v>172</v>
       </c>
     </row>
-    <row r="131" spans="1:25">
-      <c r="A131" s="1" t="s">
-        <v>262</v>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>ASAGEXCSB</t>
+        </is>
       </c>
       <c r="B131" t="n">
         <v>522</v>
@@ -11012,19 +10963,25 @@
       <c r="V131" t="n">
         <v>680</v>
       </c>
-      <c r="W131" t="s">
-        <v>262</v>
-      </c>
-      <c r="X131" t="s">
-        <v>263</v>
+      <c r="W131" t="inlineStr">
+        <is>
+          <t>ASAGEXCSB</t>
+        </is>
+      </c>
+      <c r="X131" t="inlineStr">
+        <is>
+          <t>Sports apparel and gear,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y131" t="n">
         <v>173</v>
       </c>
     </row>
-    <row r="132" spans="1:25">
-      <c r="A132" s="1" t="s">
-        <v>264</v>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>ASTEEXCSB</t>
+        </is>
       </c>
       <c r="B132" t="n">
         <v>1953</v>
@@ -11089,19 +11046,25 @@
       <c r="V132" t="n">
         <v>2295</v>
       </c>
-      <c r="W132" t="s">
-        <v>264</v>
-      </c>
-      <c r="X132" t="s">
-        <v>265</v>
+      <c r="W132" t="inlineStr">
+        <is>
+          <t>ASTEEXCSB</t>
+        </is>
+      </c>
+      <c r="X132" t="inlineStr">
+        <is>
+          <t>Stereo equipment, etc.,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y132" t="n">
         <v>174</v>
       </c>
     </row>
-    <row r="133" spans="1:25">
-      <c r="A133" s="1" t="s">
-        <v>266</v>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>ATVEEXCSB</t>
+        </is>
       </c>
       <c r="B133" t="n">
         <v>4263</v>
@@ -11166,19 +11129,25 @@
       <c r="V133" t="n">
         <v>2484</v>
       </c>
-      <c r="W133" t="s">
-        <v>266</v>
-      </c>
-      <c r="X133" t="s">
-        <v>267</v>
+      <c r="W133" t="inlineStr">
+        <is>
+          <t>ATVEEXCSB</t>
+        </is>
+      </c>
+      <c r="X133" t="inlineStr">
+        <is>
+          <t>Televisions and video equipment,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y133" t="n">
         <v>175</v>
       </c>
     </row>
-    <row r="134" spans="1:25">
-      <c r="A134" s="1" t="s">
-        <v>268</v>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>ATBMEXCSB</t>
+        </is>
       </c>
       <c r="B134" t="n">
         <v>4030</v>
@@ -11243,19 +11212,25 @@
       <c r="V134" t="n">
         <v>353</v>
       </c>
-      <c r="W134" t="s">
-        <v>268</v>
-      </c>
-      <c r="X134" t="s">
-        <v>269</v>
+      <c r="W134" t="inlineStr">
+        <is>
+          <t>ATBMEXCSB</t>
+        </is>
+      </c>
+      <c r="X134" t="inlineStr">
+        <is>
+          <t>Tobacco, manufactured,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y134" t="n">
         <v>176</v>
       </c>
     </row>
-    <row r="135" spans="1:25">
-      <c r="A135" s="1" t="s">
-        <v>270</v>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>ATCMEXCSB</t>
+        </is>
       </c>
       <c r="B135" t="n">
         <v>3754</v>
@@ -11320,19 +11295,25 @@
       <c r="V135" t="n">
         <v>12473</v>
       </c>
-      <c r="W135" t="s">
-        <v>270</v>
-      </c>
-      <c r="X135" t="s">
-        <v>271</v>
+      <c r="W135" t="inlineStr">
+        <is>
+          <t>ATCMEXCSB</t>
+        </is>
+      </c>
+      <c r="X135" t="inlineStr">
+        <is>
+          <t>Toiletries and cosmetics,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y135" t="n">
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="1:25">
-      <c r="A136" s="1" t="s">
-        <v>272</v>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>ATOYEXCSB</t>
+        </is>
       </c>
       <c r="B136" t="n">
         <v>5844</v>
@@ -11397,19 +11378,25 @@
       <c r="V136" t="n">
         <v>8153</v>
       </c>
-      <c r="W136" t="s">
-        <v>272</v>
-      </c>
-      <c r="X136" t="s">
-        <v>273</v>
+      <c r="W136" t="inlineStr">
+        <is>
+          <t>ATOYEXCSB</t>
+        </is>
+      </c>
+      <c r="X136" t="inlineStr">
+        <is>
+          <t>Toys, games and sporting goods,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y136" t="n">
         <v>178</v>
       </c>
     </row>
-    <row r="137" spans="1:25">
-      <c r="A137" s="1" t="s">
-        <v>274</v>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>AOTGEXCSB</t>
+        </is>
       </c>
       <c r="B137" t="n">
         <v>34765</v>
@@ -11474,11 +11461,15 @@
       <c r="V137" t="n">
         <v>56701</v>
       </c>
-      <c r="W137" t="s">
-        <v>274</v>
-      </c>
-      <c r="X137" t="s">
-        <v>275</v>
+      <c r="W137" t="inlineStr">
+        <is>
+          <t>AOTGEXCSB</t>
+        </is>
+      </c>
+      <c r="X137" t="inlineStr">
+        <is>
+          <t>Other Goods,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Y137" t="n">
         <v>179</v>
